--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrésFelipeJaramill\.vscode\ssff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98935A48-AF1B-49E4-9C2B-150B05EB8700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{98935A48-AF1B-49E4-9C2B-150B05EB8700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE72B797-0F1B-4B6F-AD0B-5CAE99677BFC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
+    <workbookView minimized="1" xWindow="580" yWindow="1110" windowWidth="18620" windowHeight="6940" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,9 +260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -273,16 +270,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -701,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,14 +720,14 @@
     <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.08984375" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.6328125" customWidth="1"/>
     <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.7265625" customWidth="1"/>
     <col min="17" max="17" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
@@ -750,10 +756,10 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -771,7 +777,7 @@
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -791,10 +797,10 @@
       <c r="A2" s="4">
         <v>1000414022</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>42538</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>35960</v>
       </c>
       <c r="D2" t="s">
@@ -809,13 +815,13 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="13">
         <v>3114784239</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="13">
         <v>3114784239</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
@@ -827,22 +833,22 @@
       <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>45106</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="8">
         <v>45107</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>0</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>0</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="7">
         <v>0</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="10">
         <v>0</v>
       </c>
     </row>
@@ -850,10 +856,10 @@
       <c r="A3">
         <v>1037662837</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>42538</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>35961</v>
       </c>
       <c r="D3" t="s">
@@ -868,10 +874,10 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="14">
         <v>3114784239</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="14">
         <v>3114784239</v>
       </c>
       <c r="J3" t="s">
@@ -886,10 +892,10 @@
       <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>45106</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>45107</v>
       </c>
       <c r="P3">
@@ -906,7 +912,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="Q9" s="13"/>
+      <c r="Q9" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -939,5 +945,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{98935A48-AF1B-49E4-9C2B-150B05EB8700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE72B797-0F1B-4B6F-AD0B-5CAE99677BFC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B177959-92F7-4D02-AE78-BD97F605706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="580" yWindow="1110" windowWidth="18620" windowHeight="6940" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -228,25 +228,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,9 +242,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -708,7 +692,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,14 +704,14 @@
     <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.08984375" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.6328125" customWidth="1"/>
     <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.7265625" customWidth="1"/>
     <col min="17" max="17" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
@@ -756,10 +740,10 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -777,7 +761,7 @@
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -794,13 +778,13 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>1000414022</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2">
+        <v>1037662837</v>
+      </c>
+      <c r="B2" s="7">
         <v>42538</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>35960</v>
       </c>
       <c r="D2" t="s">
@@ -815,13 +799,13 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>3114784239</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <v>3114784239</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
@@ -833,22 +817,22 @@
       <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>45106</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>45107</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>0</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <v>0</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>0</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="9">
         <v>0</v>
       </c>
     </row>
@@ -856,10 +840,10 @@
       <c r="A3">
         <v>1037662837</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>42538</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>35961</v>
       </c>
       <c r="D3" t="s">
@@ -874,10 +858,10 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>3114784239</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>3114784239</v>
       </c>
       <c r="J3" t="s">
@@ -892,10 +876,10 @@
       <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>45106</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <v>45107</v>
       </c>
       <c r="P3">
@@ -912,37 +896,18 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="Q9" s="11"/>
+      <c r="Q9" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B177959-92F7-4D02-AE78-BD97F605706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>CC</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>MEDELLÍN</t>
+  </si>
+  <si>
+    <t>ANDRES CAROLINA</t>
+  </si>
+  <si>
+    <t>NARANJO MENDOZA</t>
+  </si>
+  <si>
+    <t>NARANJOANDREA37@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>Kr 63DA # 103D 16</t>
   </si>
 </sst>
 </file>
@@ -278,37 +290,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -691,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -895,19 +877,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1038646051</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44547</v>
+      </c>
+      <c r="C4" s="7">
+        <v>37972</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="13">
+        <v>3114784239</v>
+      </c>
+      <c r="I4" s="13">
+        <v>3114784239</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>45106</v>
+      </c>
+      <c r="O4" s="7">
+        <v>45107</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q7" s="10"/>
+    </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="Q9" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A218EBB9-29D8-4B10-B694-E35B081DFFF4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>CC</t>
   </si>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>COLOMBIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTEFANÍA </t>
-  </si>
-  <si>
-    <t>USMA CARDENAS</t>
   </si>
   <si>
     <t>PORTABILIDAD OUT</t>
@@ -671,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -779,7 +773,7 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="12">
         <v>3114784239</v>
@@ -791,13 +785,13 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
         <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
       </c>
       <c r="N2" s="7">
         <v>45106</v>
@@ -820,25 +814,25 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1037662837</v>
+        <v>1038646051</v>
       </c>
       <c r="B3" s="7">
-        <v>42538</v>
+        <v>44547</v>
       </c>
       <c r="C3" s="7">
-        <v>35961</v>
+        <v>37972</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
       </c>
       <c r="H3" s="13">
         <v>3114784239</v>
@@ -850,13 +844,13 @@
         <v>19</v>
       </c>
       <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
       </c>
       <c r="N3" s="7">
         <v>45106</v>
@@ -877,70 +871,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1038646051</v>
-      </c>
-      <c r="B4" s="7">
-        <v>44547</v>
-      </c>
-      <c r="C4" s="7">
-        <v>37972</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="13">
-        <v>3114784239</v>
-      </c>
-      <c r="I4" s="13">
-        <v>3114784239</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="7">
-        <v>45106</v>
-      </c>
-      <c r="O4" s="7">
-        <v>45107</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="Q9" s="10"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q8" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A218EBB9-29D8-4B10-B694-E35B081DFFF4}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71EA9A3E-3516-4951-AB67-25AF4BEF3933}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>CC</t>
   </si>
@@ -98,30 +98,15 @@
     <t>COL.CLARO.USUARIOS@ONECONTACT.COM.CO</t>
   </si>
   <si>
-    <t xml:space="preserve">SEBASTIAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMIREZ VALENCIA </t>
-  </si>
-  <si>
     <t>COLOMBIA</t>
   </si>
   <si>
     <t>PORTABILIDAD OUT</t>
   </si>
   <si>
-    <t>ESTEFANIAUCARDENAS06@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>Calle 81 # 33-40</t>
-  </si>
-  <si>
     <t>MEDELLÍN</t>
   </si>
   <si>
-    <t>ANDRES CAROLINA</t>
-  </si>
-  <si>
     <t>NARANJO MENDOZA</t>
   </si>
   <si>
@@ -129,13 +114,16 @@
   </si>
   <si>
     <t>Kr 63DA # 103D 16</t>
+  </si>
+  <si>
+    <t>ANDREA CAROLINA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,26 +136,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -235,11 +203,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,27 +217,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -280,8 +232,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -366,6 +317,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -665,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,14 +635,14 @@
     <col min="5" max="5" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.08984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.08984375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.6328125" customWidth="1"/>
     <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.7265625" customWidth="1"/>
     <col min="17" max="17" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
@@ -716,10 +671,10 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -737,7 +692,7 @@
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -755,33 +710,33 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1037662837</v>
-      </c>
-      <c r="B2" s="7">
-        <v>42538</v>
-      </c>
-      <c r="C2" s="7">
-        <v>35960</v>
+        <v>1038646051</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44547</v>
+      </c>
+      <c r="C2" s="4">
+        <v>37972</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="H2" s="8">
         <v>3114784239</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="8">
         <v>3114784239</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
@@ -791,24 +746,24 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="7">
+        <v>22</v>
+      </c>
+      <c r="N2" s="4">
         <v>45106</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="4">
         <v>45107</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2">
         <v>0</v>
       </c>
     </row>
@@ -816,46 +771,46 @@
       <c r="A3">
         <v>1038646051</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>44547</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>37972</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="13">
+        <v>21</v>
+      </c>
+      <c r="H3" s="8">
         <v>3114784239</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="8">
         <v>3114784239</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="7">
+        <v>22</v>
+      </c>
+      <c r="N3" s="4">
         <v>45106</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="4">
         <v>45107</v>
       </c>
       <c r="P3">
@@ -871,14 +826,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="Q6" s="10"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q5" s="6"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="Q8" s="10"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q7" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="6" priority="4"/>
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71EA9A3E-3516-4951-AB67-25AF4BEF3933}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0FA3732-B2F2-4B20-9710-BFA16F6DBCAD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -104,26 +104,26 @@
     <t>PORTABILIDAD OUT</t>
   </si>
   <si>
-    <t>MEDELLÍN</t>
-  </si>
-  <si>
-    <t>NARANJO MENDOZA</t>
-  </si>
-  <si>
-    <t>NARANJOANDREA37@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>Kr 63DA # 103D 16</t>
-  </si>
-  <si>
-    <t>ANDREA CAROLINA</t>
+    <t>NICOL YELENE</t>
+  </si>
+  <si>
+    <t>HURTADO EMBUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicolhurtado2110@gmail.com </t>
+  </si>
+  <si>
+    <t>Calle 26#58DD27</t>
+  </si>
+  <si>
+    <t>Bello Antioquia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +151,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -166,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -202,11 +216,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF8EA9DB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,6 +269,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -640,7 +684,7 @@
     <col min="10" max="10" width="43.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.6328125" customWidth="1"/>
-    <col min="13" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" customWidth="1"/>
     <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.7265625" customWidth="1"/>
@@ -709,22 +753,22 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1038646051</v>
-      </c>
-      <c r="B2" s="4">
-        <v>44547</v>
-      </c>
-      <c r="C2" s="4">
-        <v>37972</v>
+      <c r="A2" s="11">
+        <v>1004249638</v>
+      </c>
+      <c r="B2" s="12">
+        <v>44125</v>
+      </c>
+      <c r="C2" s="12">
+        <v>37550</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G2" t="s">
@@ -739,14 +783,14 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
-        <v>22</v>
+      <c r="M2" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="N2" s="4">
         <v>45106</v>
@@ -768,22 +812,22 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1038646051</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44547</v>
-      </c>
-      <c r="C3" s="4">
-        <v>37972</v>
+      <c r="A3" s="11">
+        <v>1004249638</v>
+      </c>
+      <c r="B3" s="12">
+        <v>44125</v>
+      </c>
+      <c r="C3" s="12">
+        <v>37550</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G3" t="s">
@@ -798,14 +842,14 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M3" t="s">
-        <v>22</v>
+      <c r="M3" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="N3" s="4">
         <v>45106</v>
@@ -828,9 +872,6 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="Q5" s="6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="Q7" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0FA3732-B2F2-4B20-9710-BFA16F6DBCAD}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B9DAC72-F567-4937-A7F7-2E9E51BA9E95}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>CC</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>Bello Antioquia</t>
+  </si>
+  <si>
+    <t>ESTEFANÍA</t>
+  </si>
+  <si>
+    <t>USMA CARDENAS</t>
+  </si>
+  <si>
+    <t>ESTEFANIAUCARDENAS06@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>Calle 81 # 33-40</t>
+  </si>
+  <si>
+    <t>MEDELLÍN</t>
   </si>
 </sst>
 </file>
@@ -244,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +290,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,23 +828,23 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>1004249638</v>
-      </c>
-      <c r="B3" s="12">
-        <v>44125</v>
-      </c>
-      <c r="C3" s="12">
-        <v>37550</v>
+      <c r="A3">
+        <v>1037662837</v>
+      </c>
+      <c r="B3" s="4">
+        <v>42538</v>
+      </c>
+      <c r="C3" s="4">
+        <v>35961</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>23</v>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -842,14 +858,14 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>26</v>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
       </c>
       <c r="N3" s="4">
         <v>45106</v>
@@ -870,8 +886,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="Q5" s="6"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>1004249638</v>
+      </c>
+      <c r="B4" s="12">
+        <v>44125</v>
+      </c>
+      <c r="C4" s="12">
+        <v>37550</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3114784239</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3114784239</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4">
+        <v>45106</v>
+      </c>
+      <c r="O4" s="4">
+        <v>45107</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q8" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B9DAC72-F567-4937-A7F7-2E9E51BA9E95}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E14A628-150A-4F55-913B-4E13150B7D3D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>CC</t>
   </si>
@@ -259,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,7 +290,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -945,11 +944,70 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>1004249638</v>
+      </c>
+      <c r="B5" s="12">
+        <v>44125</v>
+      </c>
+      <c r="C5" s="12">
+        <v>37550</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3114784239</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3114784239</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="4">
+        <v>45106</v>
+      </c>
+      <c r="O5" s="4">
+        <v>45107</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="Q6" s="6"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="Q8" s="14"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E14A628-150A-4F55-913B-4E13150B7D3D}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8238F140-98DA-49CB-80E3-70021E806F95}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>CC</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>MEDELLÍN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YENNIFER PAOLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALENCIA MOSQUERA </t>
+  </si>
+  <si>
+    <t>HOGAR OUT</t>
+  </si>
+  <si>
+    <t>Vyenniferpaola@gmail.com</t>
+  </si>
+  <si>
+    <t>Obrero</t>
   </si>
 </sst>
 </file>
@@ -259,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,6 +305,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,43 +787,43 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
-        <v>1004249638</v>
+        <v>1028039882</v>
       </c>
       <c r="B2" s="12">
-        <v>44125</v>
+        <v>42933</v>
       </c>
       <c r="C2" s="12">
-        <v>37550</v>
+        <v>36329</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="8">
-        <v>3114784239</v>
-      </c>
-      <c r="I2" s="8">
-        <v>3114784239</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="E2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="14">
+        <v>3126920352</v>
+      </c>
+      <c r="I2" s="14">
+        <v>3126920352</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N2" s="4">
         <v>45106</v>
@@ -827,23 +845,23 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1037662837</v>
-      </c>
-      <c r="B3" s="4">
-        <v>42538</v>
-      </c>
-      <c r="C3" s="4">
-        <v>35961</v>
+      <c r="A3" s="11">
+        <v>1004249638</v>
+      </c>
+      <c r="B3" s="12">
+        <v>44125</v>
+      </c>
+      <c r="C3" s="12">
+        <v>37550</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -857,14 +875,14 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
+      <c r="K3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="N3" s="4">
         <v>45106</v>
@@ -886,23 +904,23 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
-        <v>1004249638</v>
-      </c>
-      <c r="B4" s="12">
-        <v>44125</v>
-      </c>
-      <c r="C4" s="12">
-        <v>37550</v>
+      <c r="A4">
+        <v>1037662837</v>
+      </c>
+      <c r="B4" s="4">
+        <v>42538</v>
+      </c>
+      <c r="C4" s="4">
+        <v>35961</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>23</v>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -916,14 +934,14 @@
       <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>26</v>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
       </c>
       <c r="N4" s="4">
         <v>45106</v>
@@ -1004,10 +1022,129 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="Q6" s="6"/>
+      <c r="A6" s="11">
+        <v>1004249638</v>
+      </c>
+      <c r="B6" s="12">
+        <v>44125</v>
+      </c>
+      <c r="C6" s="12">
+        <v>37550</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3114784239</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3114784239</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="4">
+        <v>45106</v>
+      </c>
+      <c r="O6" s="4">
+        <v>45107</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>1028039882</v>
+      </c>
+      <c r="B7" s="12">
+        <v>42933</v>
+      </c>
+      <c r="C7" s="12">
+        <v>36329</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="14">
+        <v>3126920352</v>
+      </c>
+      <c r="I7" s="14">
+        <v>3126920352</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="4">
+        <v>45106</v>
+      </c>
+      <c r="O7" s="4">
+        <v>45107</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8238F140-98DA-49CB-80E3-70021E806F95}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24461631-C769-4886-95C0-D08ED2719AC5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -700,7 +700,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1140,6 +1140,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24461631-C769-4886-95C0-D08ED2719AC5}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92526D6F-90AD-4BEF-B492-8B9EA5D7CDA2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>CC</t>
   </si>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t>Obrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STIVEN DAVID </t>
+  </si>
+  <si>
+    <t>BANDERAS ARIAS</t>
+  </si>
+  <si>
+    <t>stivenbanderas123@gmail.com</t>
+  </si>
+  <si>
+    <t>Crr 43 #47-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medellín </t>
   </si>
 </sst>
 </file>
@@ -274,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,6 +322,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -786,23 +804,23 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
-        <v>1028039882</v>
+      <c r="A2" s="15">
+        <v>1037121156</v>
       </c>
       <c r="B2" s="12">
-        <v>42933</v>
+        <v>45035</v>
       </c>
       <c r="C2" s="12">
-        <v>36329</v>
-      </c>
-      <c r="D2" t="s">
+        <v>38456</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>34</v>
@@ -817,13 +835,13 @@
         <v>19</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N2" s="4">
         <v>45106</v>
@@ -1138,10 +1156,6 @@
       <c r="S7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{5028A915-F2CD-4A7B-BEF6-1C1B41CA40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92526D6F-90AD-4BEF-B492-8B9EA5D7CDA2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAAABEB7-474C-4788-AE18-B98CFDF853AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -412,10 +412,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,44 +800,44 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
-        <v>1037121156</v>
+      <c r="A2" s="11">
+        <v>1004249638</v>
       </c>
       <c r="B2" s="12">
-        <v>45035</v>
+        <v>44125</v>
       </c>
       <c r="C2" s="12">
-        <v>38456</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>37550</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="14">
-        <v>3126920352</v>
-      </c>
-      <c r="I2" s="14">
-        <v>3126920352</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="E2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="8">
+        <v>3114784239</v>
+      </c>
+      <c r="I2" s="8">
+        <v>3114784239</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N2" s="4">
         <v>45106</v>
@@ -863,23 +859,23 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>1004249638</v>
-      </c>
-      <c r="B3" s="12">
-        <v>44125</v>
-      </c>
-      <c r="C3" s="12">
-        <v>37550</v>
+      <c r="A3">
+        <v>1037662837</v>
+      </c>
+      <c r="B3" s="4">
+        <v>42538</v>
+      </c>
+      <c r="C3" s="4">
+        <v>35961</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>23</v>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -893,14 +889,14 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>26</v>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
       </c>
       <c r="N3" s="4">
         <v>45106</v>
@@ -922,23 +918,23 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1037662837</v>
-      </c>
-      <c r="B4" s="4">
-        <v>42538</v>
-      </c>
-      <c r="C4" s="4">
-        <v>35961</v>
+      <c r="A4" s="11">
+        <v>1004249638</v>
+      </c>
+      <c r="B4" s="12">
+        <v>44125</v>
+      </c>
+      <c r="C4" s="12">
+        <v>37550</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
+      <c r="E4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -952,14 +948,14 @@
       <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
+      <c r="K4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="N4" s="4">
         <v>45106</v>
@@ -1041,43 +1037,43 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
-        <v>1004249638</v>
+        <v>1028039882</v>
       </c>
       <c r="B6" s="12">
-        <v>44125</v>
+        <v>42933</v>
       </c>
       <c r="C6" s="12">
-        <v>37550</v>
+        <v>36329</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="8">
-        <v>3114784239</v>
-      </c>
-      <c r="I6" s="8">
-        <v>3114784239</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="E6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="14">
+        <v>3126920352</v>
+      </c>
+      <c r="I6" s="14">
+        <v>3126920352</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N6" s="4">
         <v>45106</v>
@@ -1099,23 +1095,23 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <v>1028039882</v>
+      <c r="A7" s="15">
+        <v>1037121156</v>
       </c>
       <c r="B7" s="12">
-        <v>42933</v>
+        <v>45035</v>
       </c>
       <c r="C7" s="12">
-        <v>36329</v>
-      </c>
-      <c r="D7" t="s">
+        <v>38456</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>34</v>
@@ -1130,13 +1126,13 @@
         <v>19</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N7" s="4">
         <v>45106</v>
@@ -1157,9 +1153,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAAABEB7-474C-4788-AE18-B98CFDF853AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{BAAABEB7-474C-4788-AE18-B98CFDF853AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDAA6DE-F8EB-4465-B96F-930832ED43E3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -714,7 +714,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,7 +804,7 @@
         <v>1004249638</v>
       </c>
       <c r="B2" s="12">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="C2" s="12">
         <v>37550</v>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{BAAABEB7-474C-4788-AE18-B98CFDF853AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EDAA6DE-F8EB-4465-B96F-930832ED43E3}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{BAAABEB7-474C-4788-AE18-B98CFDF853AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F464A509-60C1-41CE-81EA-68C9ED2F2DF9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>CC</t>
   </si>
@@ -412,6 +412,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -711,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -800,23 +804,23 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
-        <v>1004249638</v>
-      </c>
-      <c r="B2" s="12">
-        <v>44126</v>
-      </c>
-      <c r="C2" s="12">
-        <v>37550</v>
+      <c r="A2">
+        <v>1037662837</v>
+      </c>
+      <c r="B2" s="4">
+        <v>42538</v>
+      </c>
+      <c r="C2" s="4">
+        <v>35961</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>23</v>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -830,14 +834,14 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>26</v>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
       </c>
       <c r="N2" s="4">
         <v>45106</v>
@@ -859,23 +863,23 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1037662837</v>
-      </c>
-      <c r="B3" s="4">
-        <v>42538</v>
-      </c>
-      <c r="C3" s="4">
-        <v>35961</v>
+      <c r="A3" s="11">
+        <v>1004249638</v>
+      </c>
+      <c r="B3" s="12">
+        <v>44125</v>
+      </c>
+      <c r="C3" s="12">
+        <v>37550</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -889,14 +893,14 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
+      <c r="K3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="N3" s="4">
         <v>45106</v>
@@ -978,43 +982,43 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
-        <v>1004249638</v>
+        <v>1028039882</v>
       </c>
       <c r="B5" s="12">
-        <v>44125</v>
+        <v>42933</v>
       </c>
       <c r="C5" s="12">
-        <v>37550</v>
+        <v>36329</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="8">
-        <v>3114784239</v>
-      </c>
-      <c r="I5" s="8">
-        <v>3114784239</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="E5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="14">
+        <v>3126920352</v>
+      </c>
+      <c r="I5" s="14">
+        <v>3126920352</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N5" s="4">
         <v>45106</v>
@@ -1036,23 +1040,23 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
-        <v>1028039882</v>
+      <c r="A6" s="15">
+        <v>1037121156</v>
       </c>
       <c r="B6" s="12">
-        <v>42933</v>
+        <v>45035</v>
       </c>
       <c r="C6" s="12">
-        <v>36329</v>
-      </c>
-      <c r="D6" t="s">
+        <v>38456</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>34</v>
@@ -1067,13 +1071,13 @@
         <v>19</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N6" s="4">
         <v>45106</v>
@@ -1094,71 +1098,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
-        <v>1037121156</v>
-      </c>
-      <c r="B7" s="12">
-        <v>45035</v>
-      </c>
-      <c r="C7" s="12">
-        <v>38456</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="14">
-        <v>3126920352</v>
-      </c>
-      <c r="I7" s="14">
-        <v>3126920352</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="4">
-        <v>45106</v>
-      </c>
-      <c r="O7" s="4">
-        <v>45107</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{BAAABEB7-474C-4788-AE18-B98CFDF853AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F464A509-60C1-41CE-81EA-68C9ED2F2DF9}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{BAAABEB7-474C-4788-AE18-B98CFDF853AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22DAF656-3642-4F7D-B29B-F2858673F8E1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>CC</t>
   </si>
@@ -117,21 +117,6 @@
   </si>
   <si>
     <t>Bello Antioquia</t>
-  </si>
-  <si>
-    <t>ESTEFANÍA</t>
-  </si>
-  <si>
-    <t>USMA CARDENAS</t>
-  </si>
-  <si>
-    <t>ESTEFANIAUCARDENAS06@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>Calle 81 # 33-40</t>
-  </si>
-  <si>
-    <t>MEDELLÍN</t>
   </si>
   <si>
     <t xml:space="preserve">YENNIFER PAOLA </t>
@@ -718,7 +703,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,44 +789,44 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1037662837</v>
-      </c>
-      <c r="B2" s="4">
-        <v>42538</v>
-      </c>
-      <c r="C2" s="4">
-        <v>35961</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="A2" s="15">
+        <v>1037121156</v>
+      </c>
+      <c r="B2" s="12">
+        <v>45035</v>
+      </c>
+      <c r="C2" s="12">
+        <v>38456</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
+      <c r="E2" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="8">
-        <v>3114784239</v>
-      </c>
-      <c r="I2" s="8">
-        <v>3114784239</v>
-      </c>
-      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="14">
+        <v>3126920352</v>
+      </c>
+      <c r="I2" s="14">
+        <v>3126920352</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
+      <c r="K2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="N2" s="4">
         <v>45106</v>
@@ -994,13 +979,13 @@
         <v>20</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H5" s="14">
         <v>3126920352</v>
@@ -1012,13 +997,13 @@
         <v>19</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N5" s="4">
         <v>45106</v>
@@ -1053,13 +1038,13 @@
         <v>20</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H6" s="14">
         <v>3126920352</v>
@@ -1071,13 +1056,13 @@
         <v>19</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N6" s="4">
         <v>45106</v>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{BAAABEB7-474C-4788-AE18-B98CFDF853AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22DAF656-3642-4F7D-B29B-F2858673F8E1}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{BAAABEB7-474C-4788-AE18-B98CFDF853AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EA2A79B-C595-4631-A1D4-271C31BCE8BD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>CC</t>
   </si>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t xml:space="preserve">Medellín </t>
+  </si>
+  <si>
+    <t>JOSÉ HANDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMBOA ECHEVERRY </t>
+  </si>
+  <si>
+    <t>Handersgamboa2002@gmail.con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL 64ee #91c-37 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medellin </t>
   </si>
 </sst>
 </file>
@@ -196,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +222,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -274,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +332,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -789,62 +820,44 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
-        <v>1037121156</v>
-      </c>
-      <c r="B2" s="12">
-        <v>45035</v>
-      </c>
-      <c r="C2" s="12">
-        <v>38456</v>
+      <c r="A2" s="16">
+        <v>1193560337</v>
+      </c>
+      <c r="B2" s="17">
+        <v>44008</v>
+      </c>
+      <c r="C2" s="17">
+        <v>37429</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>32</v>
+      <c r="E2" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="14">
-        <v>3126920352</v>
-      </c>
-      <c r="I2" s="14">
-        <v>3126920352</v>
-      </c>
-      <c r="J2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="18">
+        <v>3114784239</v>
+      </c>
+      <c r="I2" s="18">
+        <v>3114784239</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="4">
-        <v>45106</v>
-      </c>
-      <c r="O2" s="4">
-        <v>45107</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
+      <c r="K2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1083,12 +1096,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>1193560337</v>
+      </c>
+      <c r="B7" s="17">
+        <v>44008</v>
+      </c>
+      <c r="C7" s="17">
+        <v>37429</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="18">
+        <v>3114784239</v>
+      </c>
+      <c r="I7" s="18">
+        <v>3114784239</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="E8" s="6"/>
+      <c r="O8" s="20"/>
+    </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SSFF.xlsx
+++ b/SSFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ocontact-my.sharepoint.com/personal/andres_jaramillo_onecontact_com_co/Documents/Documentos/susesfactor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{6F2DE0D1-9C08-48A3-8E78-99E1FC1C9368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97372C37-471B-4606-9586-3747BC03EF2F}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{6F2DE0D1-9C08-48A3-8E78-99E1FC1C9368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C75FE463-5894-4CFC-828B-12BA1CD8B0B4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{297B325D-7599-4287-B34B-8030CCFDB71F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
   <si>
     <t>CC</t>
   </si>
@@ -104,30 +104,6 @@
     <t>PORTABILIDAD OUT</t>
   </si>
   <si>
-    <t xml:space="preserve">Simonpareja17@gmail.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luzsaraivalencia698@gmail.com </t>
-  </si>
-  <si>
-    <t>estebangzapata@gmail.com</t>
-  </si>
-  <si>
-    <t>Santiagoplx7@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vstiven211@gmail.com </t>
-  </si>
-  <si>
-    <t>DIA.MAR.V13@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>mariacamilavo10@gmail.com</t>
-  </si>
-  <si>
-    <t>marlonperezgaravito@gmail.com</t>
-  </si>
-  <si>
     <t>yudimirandam2016@gmail.com</t>
   </si>
   <si>
@@ -191,30 +167,6 @@
     <t>Kellitagomez58@gmail.com</t>
   </si>
   <si>
-    <t>Calle 97#46a-28</t>
-  </si>
-  <si>
-    <t>Cra 35d #107 a 99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR 111 #34D 26 </t>
-  </si>
-  <si>
-    <t>Calle 64 c #94b73</t>
-  </si>
-  <si>
-    <t>Rodeo alto</t>
-  </si>
-  <si>
-    <t>Calle 100 g #86 - 41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cra 47# 47-29 </t>
-  </si>
-  <si>
-    <t>Calle 65 #90-90</t>
-  </si>
-  <si>
     <t>CARRERA 62#62-42</t>
   </si>
   <si>
@@ -281,9 +233,6 @@
     <t xml:space="preserve">Antioquia </t>
   </si>
   <si>
-    <t xml:space="preserve">Medellin </t>
-  </si>
-  <si>
     <t xml:space="preserve">MEDELLÍN </t>
   </si>
   <si>
@@ -293,9 +242,6 @@
     <t xml:space="preserve">Medellín </t>
   </si>
   <si>
-    <t xml:space="preserve">Bello </t>
-  </si>
-  <si>
     <t xml:space="preserve">MEDELLIN </t>
   </si>
   <si>
@@ -312,54 +258,6 @@
   </si>
   <si>
     <t>MEDELLÍN</t>
-  </si>
-  <si>
-    <t>ANGIE LORENA</t>
-  </si>
-  <si>
-    <t>OSPINA SANCHEZ</t>
-  </si>
-  <si>
-    <t>CARLOS ANDRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARIAS MEJIA </t>
-  </si>
-  <si>
-    <t>EVELIN</t>
-  </si>
-  <si>
-    <t>CUARTAS VELASQUEZ</t>
-  </si>
-  <si>
-    <t>GREGORY</t>
-  </si>
-  <si>
-    <t>DURAN SANCHEZ</t>
-  </si>
-  <si>
-    <t>JOHAN SEBASTIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUTIERREZ MARIN </t>
-  </si>
-  <si>
-    <t>JUAN SEBASTIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÓPEZ LÓPEZ </t>
-  </si>
-  <si>
-    <t>MANUELA</t>
-  </si>
-  <si>
-    <t>SALAZAR HOYOS</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>CADAVID MARIN</t>
   </si>
   <si>
     <t>MIGUEL ANGEL</t>
@@ -486,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,16 +419,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,12 +437,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FFD9E1F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -617,11 +501,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,13 +546,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -754,6 +632,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1053,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B3B874-DCF4-455B-84AE-E2983DF55BBC}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,22 +1025,22 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
-        <v>1032677549</v>
+        <v>1035431872</v>
       </c>
       <c r="B2" s="11">
-        <v>45001</v>
+        <v>45029</v>
       </c>
       <c r="C2" s="11">
-        <v>38415</v>
+        <v>38431</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>92</v>
+      <c r="E2" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>21</v>
@@ -1169,37 +1051,37 @@
       <c r="I2" s="15">
         <v>3114784239</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
-        <v>1000293052</v>
+        <v>1000888216</v>
       </c>
       <c r="B3" s="12">
-        <v>45153</v>
+        <v>44455</v>
       </c>
       <c r="C3" s="12">
-        <v>38572</v>
+        <v>37317</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>21</v>
@@ -1217,30 +1099,30 @@
         <v>19</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
-        <v>1025644195</v>
+        <v>1023365190</v>
       </c>
       <c r="B4" s="11">
-        <v>44858</v>
+        <v>43284</v>
       </c>
       <c r="C4" s="11">
-        <v>38283</v>
+        <v>36553</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>21</v>
@@ -1258,30 +1140,30 @@
         <v>19</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
-        <v>1127226872</v>
+        <v>1037388739</v>
       </c>
       <c r="B5" s="12">
-        <v>43781</v>
+        <v>44236</v>
       </c>
       <c r="C5" s="12">
-        <v>37168</v>
+        <v>37659</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>21</v>
@@ -1299,30 +1181,30 @@
         <v>19</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
-        <v>1001764223</v>
+        <v>1094978079</v>
       </c>
       <c r="B6" s="11">
-        <v>42790</v>
+        <v>43990</v>
       </c>
       <c r="C6" s="11">
-        <v>36214</v>
+        <v>37414</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>21</v>
@@ -1340,30 +1222,30 @@
         <v>19</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
-        <v>1038797993</v>
+        <v>1029300144</v>
       </c>
       <c r="B7" s="12">
-        <v>41325</v>
+        <v>43633</v>
       </c>
       <c r="C7" s="12">
-        <v>34743</v>
+        <v>37045</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>21</v>
@@ -1381,30 +1263,30 @@
         <v>19</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
-        <v>1033257778</v>
+        <v>1002151416</v>
       </c>
       <c r="B8" s="11">
-        <v>42503</v>
+        <v>45090</v>
       </c>
       <c r="C8" s="11">
-        <v>35925</v>
+        <v>38514</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>21</v>
@@ -1422,30 +1304,30 @@
         <v>19</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
-        <v>1027801800</v>
+        <v>1000547868</v>
       </c>
       <c r="B9" s="12">
-        <v>43761</v>
+        <v>44735</v>
       </c>
       <c r="C9" s="12">
-        <v>37172</v>
+        <v>37600</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>21</v>
@@ -1463,30 +1345,30 @@
         <v>19</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
-        <v>1035431872</v>
+        <v>1152214269</v>
       </c>
       <c r="B10" s="11">
-        <v>45029</v>
+        <v>44830</v>
       </c>
       <c r="C10" s="11">
-        <v>38431</v>
+        <v>38253</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>21</v>
@@ -1504,30 +1386,30 @@
         <v>19</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
-        <v>1000888216</v>
+        <v>1001417666</v>
       </c>
       <c r="B11" s="12">
-        <v>44455</v>
+        <v>45133</v>
       </c>
       <c r="C11" s="12">
-        <v>37317</v>
+        <v>38541</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>21</v>
@@ -1545,30 +1427,30 @@
         <v>19</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
-        <v>1023365190</v>
+        <v>1214746830</v>
       </c>
       <c r="B12" s="11">
-        <v>43284</v>
+        <v>43129</v>
       </c>
       <c r="C12" s="11">
-        <v>36553</v>
+        <v>36549</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>21</v>
@@ -1586,30 +1468,30 @@
         <v>19</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
-        <v>1037388739</v>
+        <v>1077440571</v>
       </c>
       <c r="B13" s="12">
-        <v>44236</v>
+        <v>44442</v>
       </c>
       <c r="C13" s="12">
-        <v>37659</v>
+        <v>37866</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>21</v>
@@ -1627,30 +1509,30 @@
         <v>19</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
-        <v>1094978079</v>
+        <v>1193120786</v>
       </c>
       <c r="B14" s="11">
-        <v>43990</v>
+        <v>44783</v>
       </c>
       <c r="C14" s="11">
-        <v>37414</v>
+        <v>38207</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>21</v>
@@ -1668,30 +1550,30 @@
         <v>19</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
-        <v>1029300144</v>
+        <v>1000401661</v>
       </c>
       <c r="B15" s="12">
-        <v>43633</v>
+        <v>41772</v>
       </c>
       <c r="C15" s="12">
-        <v>37045</v>
+        <v>35190</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>21</v>
@@ -1709,30 +1591,30 @@
         <v>19</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
-        <v>1002151416</v>
+        <v>1000898845</v>
       </c>
       <c r="B16" s="11">
-        <v>45090</v>
+        <v>42697</v>
       </c>
       <c r="C16" s="11">
-        <v>38514</v>
+        <v>36101</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>21</v>
@@ -1750,30 +1632,30 @@
         <v>19</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
-        <v>1000547868</v>
+        <v>1036688568</v>
       </c>
       <c r="B17" s="12">
-        <v>44735</v>
+        <v>45140</v>
       </c>
       <c r="C17" s="12">
-        <v>37600</v>
+        <v>38565</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>21</v>
@@ -1791,30 +1673,30 @@
         <v>19</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
-        <v>1152214269</v>
+        <v>1000089945</v>
       </c>
       <c r="B18" s="11">
-        <v>44830</v>
+        <v>45107</v>
       </c>
       <c r="C18" s="11">
-        <v>38253</v>
+        <v>38405</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>21</v>
@@ -1832,30 +1714,30 @@
         <v>19</v>
       </c>
       <c r="L18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
-        <v>1001417666</v>
+        <v>1017158310</v>
       </c>
       <c r="B19" s="12">
-        <v>45133</v>
+        <v>41856</v>
       </c>
       <c r="C19" s="12">
-        <v>38541</v>
+        <v>35275</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>21</v>
@@ -1873,30 +1755,30 @@
         <v>19</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
-        <v>1214746830</v>
+        <v>1193236379</v>
       </c>
       <c r="B20" s="11">
-        <v>43129</v>
+        <v>45142</v>
       </c>
       <c r="C20" s="11">
-        <v>36549</v>
+        <v>38541</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>21</v>
@@ -1914,30 +1796,30 @@
         <v>19</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
-        <v>1077440571</v>
+        <v>1040037974</v>
       </c>
       <c r="B21" s="12">
-        <v>44442</v>
+        <v>41491</v>
       </c>
       <c r="C21" s="12">
-        <v>37866</v>
+        <v>34912</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>21</v>
@@ -1955,30 +1837,30 @@
         <v>19</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
-        <v>1193120786</v>
+        <v>1037856304</v>
       </c>
       <c r="B22" s="11">
-        <v>44783</v>
+        <v>44224</v>
       </c>
       <c r="C22" s="11">
-        <v>38207</v>
+        <v>37647</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>21</v>
@@ -1996,348 +1878,20 @@
         <v>19</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>1000401661</v>
-      </c>
-      <c r="B23" s="12">
-        <v>41772</v>
-      </c>
-      <c r="C23" s="12">
-        <v>35190</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="16">
-        <v>3114784239</v>
-      </c>
-      <c r="I23" s="16">
-        <v>3114784239</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>83</v>
-      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>1000898845</v>
-      </c>
-      <c r="B24" s="11">
-        <v>42697</v>
-      </c>
-      <c r="C24" s="11">
-        <v>36101</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="15">
-        <v>3114784239</v>
-      </c>
-      <c r="I24" s="15">
-        <v>3114784239</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
-        <v>1036688568</v>
-      </c>
-      <c r="B25" s="12">
-        <v>45140</v>
-      </c>
-      <c r="C25" s="12">
-        <v>38565</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="16">
-        <v>3114784239</v>
-      </c>
-      <c r="I25" s="16">
-        <v>3114784239</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
-        <v>1000089945</v>
-      </c>
-      <c r="B26" s="11">
-        <v>45107</v>
-      </c>
-      <c r="C26" s="11">
-        <v>38405</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="15">
-        <v>3114784239</v>
-      </c>
-      <c r="I26" s="15">
-        <v>3114784239</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>84</v>
-      </c>
+      <c r="D24" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
-        <v>1017158310</v>
-      </c>
-      <c r="B27" s="12">
-        <v>41856</v>
-      </c>
-      <c r="C27" s="12">
-        <v>35275</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="16">
-        <v>3114784239</v>
-      </c>
-      <c r="I27" s="16">
-        <v>3114784239</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
-        <v>1193236379</v>
-      </c>
-      <c r="B28" s="11">
-        <v>45142</v>
-      </c>
-      <c r="C28" s="11">
-        <v>38541</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="15">
-        <v>3114784239</v>
-      </c>
-      <c r="I28" s="15">
-        <v>3114784239</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
-        <v>1040037974</v>
-      </c>
-      <c r="B29" s="12">
-        <v>41491</v>
-      </c>
-      <c r="C29" s="12">
-        <v>34912</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F29" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="16">
-        <v>3114784239</v>
-      </c>
-      <c r="I29" s="16">
-        <v>3114784239</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
-        <v>1037856304</v>
-      </c>
-      <c r="B30" s="11">
-        <v>44224</v>
-      </c>
-      <c r="C30" s="11">
-        <v>37647</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="15">
-        <v>3114784239</v>
-      </c>
-      <c r="I30" s="15">
-        <v>3114784239</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D32" s="6"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D35" s="6"/>
+      <c r="D27" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2350,10 +1904,7 @@
     <cfRule type="duplicateValues" dxfId="1" priority="9"/>
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{C89A3507-D52F-44B2-BC93-BFF9770E50AD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>